--- a/labs/Day-15/Day-15/bin/Debug/net8.0/Book1.xlsx
+++ b/labs/Day-15/Day-15/bin/Debug/net8.0/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Level Up Solutions 1\Desktop\course-structure\labs\Day-15\Day-15\bin\Debug\net8.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2DE79D1-D865-447E-BB1B-E884EA26E48C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C66F3510-1365-4899-892F-80A213FFD3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{35CC48BD-B7C3-461A-8532-A1B0E1B9A7D5}"/>
   </bookViews>
@@ -34,21 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ID</t>
   </si>
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Vikash Verma 1</t>
-  </si>
-  <si>
-    <t>Vikash Verma 2</t>
-  </si>
-  <si>
-    <t>Vikash Verma 3</t>
   </si>
 </sst>
 </file>
@@ -399,11 +390,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFA9945-C01A-48CC-9B93-8B463C10784D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{9EFA9945-C01A-48CC-9B93-8B463C10784D}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,7 +402,7 @@
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row spans="1:2" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -419,28 +410,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>Value1</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>Value2</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>Value1</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>Value2</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>RAKESH SHARMA</t>
+        </is>
       </c>
     </row>
   </sheetData>
